--- a/data/elderly_wedding_house/data.xlsx
+++ b/data/elderly_wedding_house/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -803,16 +803,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>0</v>
+        <v>34.34630528</v>
       </c>
       <c r="C10" t="str">
-        <v>0</v>
+        <v>134.12677778</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>老人いこいの家牟礼いこいの家</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>高松市牟礼町牟礼1978-1</v>
       </c>
       <c r="F10" t="str">
         <v/>
@@ -827,16 +827,16 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <v/>
+        <v>月火水木金土日</v>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>09:00</v>
       </c>
       <c r="L10" t="str">
-        <v/>
+        <v>18:00</v>
       </c>
       <c r="M10" t="str">
-        <v/>
+        <v>時間外利用可能</v>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -847,16 +847,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>34.34630528</v>
+        <v>34.33712806</v>
       </c>
       <c r="C11" t="str">
-        <v>134.12677778</v>
+        <v>134.13068722</v>
       </c>
       <c r="D11" t="str">
-        <v>老人いこいの家牟礼いこいの家</v>
+        <v>老人いこいの家牟礼いこいの広場</v>
       </c>
       <c r="E11" t="str">
-        <v>高松市牟礼町牟礼1978-1</v>
+        <v>高松市牟礼町牟礼568</v>
       </c>
       <c r="F11" t="str">
         <v/>
@@ -871,68 +871,24 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>月火水木金土日</v>
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v>09:00</v>
+        <v/>
       </c>
       <c r="L11" t="str">
-        <v>18:00</v>
+        <v/>
       </c>
       <c r="M11" t="str">
-        <v>時間外利用可能</v>
+        <v/>
       </c>
       <c r="N11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>34.33712806</v>
-      </c>
-      <c r="C12" t="str">
-        <v>134.13068722</v>
-      </c>
-      <c r="D12" t="str">
-        <v>老人いこいの家牟礼いこいの広場</v>
-      </c>
-      <c r="E12" t="str">
-        <v>高松市牟礼町牟礼568</v>
-      </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <v/>
-      </c>
-      <c r="K12" t="str">
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v/>
-      </c>
-      <c r="N12" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/elderly_wedding_house/data.xlsx
+++ b/data/elderly_wedding_house/data.xlsx
@@ -695,7 +695,7 @@
         <v/>
       </c>
       <c r="J7" t="str">
-        <v>月火水木金</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="K7" t="str">
         <v>09:00</v>
@@ -704,7 +704,7 @@
         <v>18:00</v>
       </c>
       <c r="M7" t="str">
-        <v/>
+        <v>時間外利用可能</v>
       </c>
       <c r="N7" t="str">
         <v/>
@@ -856,7 +856,7 @@
         <v>老人いこいの家牟礼いこいの広場</v>
       </c>
       <c r="E11" t="str">
-        <v>高松市牟礼町牟礼568</v>
+        <v>高松市牟礼町牟礼567-1</v>
       </c>
       <c r="F11" t="str">
         <v/>
